--- a/04_Safety_Helmet_Vest_Detection/Safety_helmet_vest_cam/exe/yolov3_Helmet_vest_detection/yolov3_Helmet_vest_detection_summary.xlsx
+++ b/04_Safety_Helmet_Vest_Detection/Safety_helmet_vest_cam/exe/yolov3_Helmet_vest_detection/yolov3_Helmet_vest_detection_summary.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$4:$S$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$4:$S$113</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S117"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
@@ -729,12 +729,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>post_0_0_resize_hwc</t>
+          <t>post_0_0_conv_yuv2rgb</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>resize_hwc</t>
+          <t>conv_yuv2rgb</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>640</v>
@@ -771,13 +771,13 @@
         <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>416</v>
+        <v>640</v>
       </c>
       <c r="Q5" t="n">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="S5" t="n">
-        <v>3985</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" outlineLevel="1">
@@ -786,12 +786,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>post_0_0_imagescaler</t>
+          <t>post_0_1_resize_hwc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>imagescaler</t>
+          <t>resize_hwc</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -819,10 +819,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>416</v>
+        <v>640</v>
       </c>
       <c r="N6" t="n">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="O6" t="n">
         <v>3</v>
@@ -834,46 +834,43 @@
         <v>416</v>
       </c>
       <c r="S6" t="n">
-        <v>206</v>
+        <v>3985</v>
       </c>
     </row>
     <row r="7" outlineLevel="1">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>/module_list.0/conv_0/Conv_output_0</t>
+          <t>post_0_1_imagescaler</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>imagescaler</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
@@ -885,7 +882,7 @@
         <v>416</v>
       </c>
       <c r="O7" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
         <v>416</v>
@@ -894,16 +891,16 @@
         <v>416</v>
       </c>
       <c r="S7" t="n">
-        <v>3695</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" outlineLevel="1">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/module_list.1/conv_1/Conv_output_0</t>
+          <t>/module_list.0/conv_0/Conv_output_0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -918,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -936,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>416</v>
@@ -945,67 +942,67 @@
         <v>416</v>
       </c>
       <c r="O8" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="P8" t="n">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="Q8" t="n">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="S8" t="n">
-        <v>3861</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="9" outlineLevel="1">
       <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>/module_list.1/conv_1/Conv_output_0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Conv&gt;LeakyRelu</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
         <v>2</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>/module_list.2/conv_2/Conv_output_0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Conv&gt;LeakyRelu</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
+        <v>32</v>
+      </c>
+      <c r="M9" t="n">
+        <v>416</v>
+      </c>
+      <c r="N9" t="n">
+        <v>416</v>
+      </c>
+      <c r="O9" t="n">
         <v>64</v>
-      </c>
-      <c r="M9" t="n">
-        <v>208</v>
-      </c>
-      <c r="N9" t="n">
-        <v>208</v>
-      </c>
-      <c r="O9" t="n">
-        <v>32</v>
       </c>
       <c r="P9" t="n">
         <v>208</v>
@@ -1014,16 +1011,16 @@
         <v>208</v>
       </c>
       <c r="S9" t="n">
-        <v>2596</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="10" outlineLevel="1">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/module_list.3/conv_3/Conv_output_0</t>
+          <t>/module_list.2/conv_2/Conv_output_0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1032,10 +1029,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1044,19 +1041,19 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="M10" t="n">
         <v>208</v>
@@ -1065,7 +1062,7 @@
         <v>208</v>
       </c>
       <c r="O10" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="P10" t="n">
         <v>208</v>
@@ -1074,49 +1071,49 @@
         <v>208</v>
       </c>
       <c r="S10" t="n">
-        <v>3824</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="11" outlineLevel="1">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/Add_output_0</t>
+          <t>/module_list.3/conv_3/Conv_output_0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M11" t="n">
         <v>208</v>
@@ -1134,46 +1131,46 @@
         <v>208</v>
       </c>
       <c r="S11" t="n">
-        <v>5192</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="12" outlineLevel="1">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/module_list.5/conv_5/Conv_output_0</t>
+          <t>/Add_output_0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>64</v>
@@ -1185,25 +1182,25 @@
         <v>208</v>
       </c>
       <c r="O12" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="Q12" t="n">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="S12" t="n">
-        <v>3695</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="13" outlineLevel="1">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/module_list.6/conv_6/Conv_output_0</t>
+          <t>/module_list.5/conv_5/Conv_output_0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1212,40 +1209,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
+        <v>64</v>
+      </c>
+      <c r="M13" t="n">
+        <v>208</v>
+      </c>
+      <c r="N13" t="n">
+        <v>208</v>
+      </c>
+      <c r="O13" t="n">
         <v>128</v>
-      </c>
-      <c r="M13" t="n">
-        <v>104</v>
-      </c>
-      <c r="N13" t="n">
-        <v>104</v>
-      </c>
-      <c r="O13" t="n">
-        <v>64</v>
       </c>
       <c r="P13" t="n">
         <v>104</v>
@@ -1254,16 +1251,16 @@
         <v>104</v>
       </c>
       <c r="S13" t="n">
-        <v>1298</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="14" outlineLevel="1">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/module_list.7/conv_7/Conv_output_0</t>
+          <t>/module_list.6/conv_6/Conv_output_0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1272,10 +1269,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -1284,19 +1281,19 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
         <v>104</v>
@@ -1305,7 +1302,7 @@
         <v>104</v>
       </c>
       <c r="O14" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P14" t="n">
         <v>104</v>
@@ -1314,49 +1311,49 @@
         <v>104</v>
       </c>
       <c r="S14" t="n">
-        <v>3661</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="15" outlineLevel="1">
       <c r="A15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/Add_1_output_0</t>
+          <t>/module_list.7/conv_7/Conv_output_0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="M15" t="n">
         <v>104</v>
@@ -1374,21 +1371,21 @@
         <v>104</v>
       </c>
       <c r="S15" t="n">
-        <v>2596</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="16" outlineLevel="1">
       <c r="A16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/module_list.9/conv_9/Conv_output_0</t>
+          <t>/Add_1_output_0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1401,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1425,7 +1422,7 @@
         <v>104</v>
       </c>
       <c r="O16" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="P16" t="n">
         <v>104</v>
@@ -1434,16 +1431,16 @@
         <v>104</v>
       </c>
       <c r="S16" t="n">
-        <v>1298</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="17" outlineLevel="1">
       <c r="A17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/module_list.10/conv_10/Conv_output_0</t>
+          <t>/module_list.9/conv_9/Conv_output_0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1452,10 +1449,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1464,19 +1461,19 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="M17" t="n">
         <v>104</v>
@@ -1485,7 +1482,7 @@
         <v>104</v>
       </c>
       <c r="O17" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="P17" t="n">
         <v>104</v>
@@ -1494,49 +1491,49 @@
         <v>104</v>
       </c>
       <c r="S17" t="n">
-        <v>3661</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="18" outlineLevel="1">
       <c r="A18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/Add_2_output_0</t>
+          <t>/module_list.10/conv_10/Conv_output_0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="M18" t="n">
         <v>104</v>
@@ -1554,46 +1551,46 @@
         <v>104</v>
       </c>
       <c r="S18" t="n">
-        <v>2596</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="19" outlineLevel="1">
       <c r="A19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/module_list.12/conv_12/Conv_output_0</t>
+          <t>/Add_2_output_0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>128</v>
@@ -1605,25 +1602,25 @@
         <v>104</v>
       </c>
       <c r="O19" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="P19" t="n">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="Q19" t="n">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="S19" t="n">
-        <v>3716</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="20" outlineLevel="1">
       <c r="A20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/module_list.13/conv_13/Conv_output_0</t>
+          <t>/module_list.12/conv_12/Conv_output_0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1632,41 +1629,41 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
+        <v>128</v>
+      </c>
+      <c r="M20" t="n">
+        <v>104</v>
+      </c>
+      <c r="N20" t="n">
+        <v>104</v>
+      </c>
+      <c r="O20" t="n">
         <v>256</v>
       </c>
-      <c r="M20" t="n">
-        <v>52</v>
-      </c>
-      <c r="N20" t="n">
-        <v>52</v>
-      </c>
-      <c r="O20" t="n">
-        <v>128</v>
-      </c>
       <c r="P20" t="n">
         <v>52</v>
       </c>
@@ -1674,16 +1671,16 @@
         <v>52</v>
       </c>
       <c r="S20" t="n">
-        <v>443</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="21" outlineLevel="1">
       <c r="A21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/module_list.14/conv_14/Conv_output_0</t>
+          <t>/module_list.13/conv_13/Conv_output_0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1692,10 +1689,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1704,29 +1701,29 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>256</v>
+      </c>
+      <c r="M21" t="n">
+        <v>52</v>
+      </c>
+      <c r="N21" t="n">
+        <v>52</v>
+      </c>
+      <c r="O21" t="n">
         <v>128</v>
       </c>
-      <c r="M21" t="n">
-        <v>52</v>
-      </c>
-      <c r="N21" t="n">
-        <v>52</v>
-      </c>
-      <c r="O21" t="n">
-        <v>256</v>
-      </c>
       <c r="P21" t="n">
         <v>52</v>
       </c>
@@ -1734,49 +1731,49 @@
         <v>52</v>
       </c>
       <c r="S21" t="n">
-        <v>3581</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" outlineLevel="1">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/Add_3_output_0</t>
+          <t>/module_list.14/conv_14/Conv_output_0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M22" t="n">
         <v>52</v>
@@ -1794,21 +1791,21 @@
         <v>52</v>
       </c>
       <c r="S22" t="n">
-        <v>1298</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="23" outlineLevel="1">
       <c r="A23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>/module_list.16/conv_16/Conv_output_0</t>
+          <t>/Add_3_output_0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1821,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1845,7 +1842,7 @@
         <v>52</v>
       </c>
       <c r="O23" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="P23" t="n">
         <v>52</v>
@@ -1854,16 +1851,16 @@
         <v>52</v>
       </c>
       <c r="S23" t="n">
-        <v>443</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="24" outlineLevel="1">
       <c r="A24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/module_list.17/conv_17/Conv_output_0</t>
+          <t>/module_list.16/conv_16/Conv_output_0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1872,10 +1869,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
@@ -1884,29 +1881,29 @@
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>256</v>
+      </c>
+      <c r="M24" t="n">
+        <v>52</v>
+      </c>
+      <c r="N24" t="n">
+        <v>52</v>
+      </c>
+      <c r="O24" t="n">
         <v>128</v>
       </c>
-      <c r="M24" t="n">
-        <v>52</v>
-      </c>
-      <c r="N24" t="n">
-        <v>52</v>
-      </c>
-      <c r="O24" t="n">
-        <v>256</v>
-      </c>
       <c r="P24" t="n">
         <v>52</v>
       </c>
@@ -1914,49 +1911,49 @@
         <v>52</v>
       </c>
       <c r="S24" t="n">
-        <v>3581</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" outlineLevel="1">
       <c r="A25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/Add_4_output_0</t>
+          <t>/module_list.17/conv_17/Conv_output_0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M25" t="n">
         <v>52</v>
@@ -1974,21 +1971,21 @@
         <v>52</v>
       </c>
       <c r="S25" t="n">
-        <v>1298</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="26" outlineLevel="1">
       <c r="A26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/module_list.19/conv_19/Conv_output_0</t>
+          <t>/Add_4_output_0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2001,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2025,7 +2022,7 @@
         <v>52</v>
       </c>
       <c r="O26" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="P26" t="n">
         <v>52</v>
@@ -2034,16 +2031,16 @@
         <v>52</v>
       </c>
       <c r="S26" t="n">
-        <v>443</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="27" outlineLevel="1">
       <c r="A27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>/module_list.20/conv_20/Conv_output_0</t>
+          <t>/module_list.19/conv_19/Conv_output_0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2052,10 +2049,10 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -2064,29 +2061,29 @@
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
+        <v>256</v>
+      </c>
+      <c r="M27" t="n">
+        <v>52</v>
+      </c>
+      <c r="N27" t="n">
+        <v>52</v>
+      </c>
+      <c r="O27" t="n">
         <v>128</v>
       </c>
-      <c r="M27" t="n">
-        <v>52</v>
-      </c>
-      <c r="N27" t="n">
-        <v>52</v>
-      </c>
-      <c r="O27" t="n">
-        <v>256</v>
-      </c>
       <c r="P27" t="n">
         <v>52</v>
       </c>
@@ -2094,49 +2091,49 @@
         <v>52</v>
       </c>
       <c r="S27" t="n">
-        <v>3581</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" outlineLevel="1">
       <c r="A28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>/Add_5_output_0</t>
+          <t>/module_list.20/conv_20/Conv_output_0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M28" t="n">
         <v>52</v>
@@ -2154,21 +2151,21 @@
         <v>52</v>
       </c>
       <c r="S28" t="n">
-        <v>1298</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="29" outlineLevel="1">
       <c r="A29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>/module_list.22/conv_22/Conv_output_0</t>
+          <t>/Add_5_output_0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2181,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2205,7 +2202,7 @@
         <v>52</v>
       </c>
       <c r="O29" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="P29" t="n">
         <v>52</v>
@@ -2214,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="S29" t="n">
-        <v>443</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="30" outlineLevel="1">
       <c r="A30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>/module_list.23/conv_23/Conv_output_0</t>
+          <t>/module_list.22/conv_22/Conv_output_0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2232,10 +2229,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -2244,29 +2241,29 @@
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
+        <v>256</v>
+      </c>
+      <c r="M30" t="n">
+        <v>52</v>
+      </c>
+      <c r="N30" t="n">
+        <v>52</v>
+      </c>
+      <c r="O30" t="n">
         <v>128</v>
       </c>
-      <c r="M30" t="n">
-        <v>52</v>
-      </c>
-      <c r="N30" t="n">
-        <v>52</v>
-      </c>
-      <c r="O30" t="n">
-        <v>256</v>
-      </c>
       <c r="P30" t="n">
         <v>52</v>
       </c>
@@ -2274,49 +2271,49 @@
         <v>52</v>
       </c>
       <c r="S30" t="n">
-        <v>3581</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" outlineLevel="1">
       <c r="A31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>/Add_6_output_0</t>
+          <t>/module_list.23/conv_23/Conv_output_0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M31" t="n">
         <v>52</v>
@@ -2334,21 +2331,21 @@
         <v>52</v>
       </c>
       <c r="S31" t="n">
-        <v>1298</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="32" outlineLevel="1">
       <c r="A32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>/module_list.25/conv_25/Conv_output_0</t>
+          <t>/Add_6_output_0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2361,7 +2358,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2385,7 +2382,7 @@
         <v>52</v>
       </c>
       <c r="O32" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="P32" t="n">
         <v>52</v>
@@ -2394,16 +2391,16 @@
         <v>52</v>
       </c>
       <c r="S32" t="n">
-        <v>443</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="33" outlineLevel="1">
       <c r="A33" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>/module_list.26/conv_26/Conv_output_0</t>
+          <t>/module_list.25/conv_25/Conv_output_0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2412,10 +2409,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
@@ -2424,29 +2421,29 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>256</v>
+      </c>
+      <c r="M33" t="n">
+        <v>52</v>
+      </c>
+      <c r="N33" t="n">
+        <v>52</v>
+      </c>
+      <c r="O33" t="n">
         <v>128</v>
       </c>
-      <c r="M33" t="n">
-        <v>52</v>
-      </c>
-      <c r="N33" t="n">
-        <v>52</v>
-      </c>
-      <c r="O33" t="n">
-        <v>256</v>
-      </c>
       <c r="P33" t="n">
         <v>52</v>
       </c>
@@ -2454,49 +2451,49 @@
         <v>52</v>
       </c>
       <c r="S33" t="n">
-        <v>3581</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" outlineLevel="1">
       <c r="A34" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>/Add_7_output_0</t>
+          <t>/module_list.26/conv_26/Conv_output_0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M34" t="n">
         <v>52</v>
@@ -2514,21 +2511,21 @@
         <v>52</v>
       </c>
       <c r="S34" t="n">
-        <v>1298</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="35" outlineLevel="1">
       <c r="A35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>/module_list.28/conv_28/Conv_output_0</t>
+          <t>/Add_7_output_0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -2541,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2565,7 +2562,7 @@
         <v>52</v>
       </c>
       <c r="O35" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="P35" t="n">
         <v>52</v>
@@ -2574,16 +2571,16 @@
         <v>52</v>
       </c>
       <c r="S35" t="n">
-        <v>443</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="36" outlineLevel="1">
       <c r="A36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>/module_list.29/conv_29/Conv_output_0</t>
+          <t>/module_list.28/conv_28/Conv_output_0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2592,10 +2589,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
@@ -2604,29 +2601,29 @@
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
+        <v>256</v>
+      </c>
+      <c r="M36" t="n">
+        <v>52</v>
+      </c>
+      <c r="N36" t="n">
+        <v>52</v>
+      </c>
+      <c r="O36" t="n">
         <v>128</v>
       </c>
-      <c r="M36" t="n">
-        <v>52</v>
-      </c>
-      <c r="N36" t="n">
-        <v>52</v>
-      </c>
-      <c r="O36" t="n">
-        <v>256</v>
-      </c>
       <c r="P36" t="n">
         <v>52</v>
       </c>
@@ -2634,49 +2631,49 @@
         <v>52</v>
       </c>
       <c r="S36" t="n">
-        <v>3581</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" outlineLevel="1">
       <c r="A37" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>/Add_8_output_0</t>
+          <t>/module_list.29/conv_29/Conv_output_0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M37" t="n">
         <v>52</v>
@@ -2694,21 +2691,21 @@
         <v>52</v>
       </c>
       <c r="S37" t="n">
-        <v>1298</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="38" outlineLevel="1">
       <c r="A38" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>/module_list.31/conv_31/Conv_output_0</t>
+          <t>/Add_8_output_0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2721,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2745,7 +2742,7 @@
         <v>52</v>
       </c>
       <c r="O38" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="P38" t="n">
         <v>52</v>
@@ -2754,16 +2751,16 @@
         <v>52</v>
       </c>
       <c r="S38" t="n">
-        <v>443</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="39" outlineLevel="1">
       <c r="A39" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>/module_list.32/conv_32/Conv_output_0</t>
+          <t>/module_list.31/conv_31/Conv_output_0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2772,10 +2769,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
@@ -2784,29 +2781,29 @@
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>256</v>
+      </c>
+      <c r="M39" t="n">
+        <v>52</v>
+      </c>
+      <c r="N39" t="n">
+        <v>52</v>
+      </c>
+      <c r="O39" t="n">
         <v>128</v>
       </c>
-      <c r="M39" t="n">
-        <v>52</v>
-      </c>
-      <c r="N39" t="n">
-        <v>52</v>
-      </c>
-      <c r="O39" t="n">
-        <v>256</v>
-      </c>
       <c r="P39" t="n">
         <v>52</v>
       </c>
@@ -2814,49 +2811,49 @@
         <v>52</v>
       </c>
       <c r="S39" t="n">
-        <v>3581</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" outlineLevel="1">
       <c r="A40" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>/Add_9_output_0</t>
+          <t>/module_list.32/conv_32/Conv_output_0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M40" t="n">
         <v>52</v>
@@ -2874,21 +2871,21 @@
         <v>52</v>
       </c>
       <c r="S40" t="n">
-        <v>1298</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="41" outlineLevel="1">
       <c r="A41" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>/module_list.34/conv_34/Conv_output_0</t>
+          <t>/Add_9_output_0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -2901,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2925,7 +2922,7 @@
         <v>52</v>
       </c>
       <c r="O41" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="P41" t="n">
         <v>52</v>
@@ -2934,16 +2931,16 @@
         <v>52</v>
       </c>
       <c r="S41" t="n">
-        <v>443</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="42" outlineLevel="1">
       <c r="A42" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>/module_list.35/conv_35/Conv_output_0</t>
+          <t>/module_list.34/conv_34/Conv_output_0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2952,10 +2949,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -2964,29 +2961,29 @@
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
+        <v>256</v>
+      </c>
+      <c r="M42" t="n">
+        <v>52</v>
+      </c>
+      <c r="N42" t="n">
+        <v>52</v>
+      </c>
+      <c r="O42" t="n">
         <v>128</v>
       </c>
-      <c r="M42" t="n">
-        <v>52</v>
-      </c>
-      <c r="N42" t="n">
-        <v>52</v>
-      </c>
-      <c r="O42" t="n">
-        <v>256</v>
-      </c>
       <c r="P42" t="n">
         <v>52</v>
       </c>
@@ -2994,49 +2991,49 @@
         <v>52</v>
       </c>
       <c r="S42" t="n">
-        <v>3581</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" outlineLevel="1">
       <c r="A43" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>/Add_10_output_0</t>
+          <t>/module_list.35/conv_35/Conv_output_0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="M43" t="n">
         <v>52</v>
@@ -3054,46 +3051,46 @@
         <v>52</v>
       </c>
       <c r="S43" t="n">
-        <v>1298</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="44" outlineLevel="1">
       <c r="A44" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>/module_list.37/conv_37/Conv_output_0</t>
+          <t>/Add_10_output_0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>256</v>
@@ -3105,25 +3102,25 @@
         <v>52</v>
       </c>
       <c r="O44" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="P44" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="Q44" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="S44" t="n">
-        <v>3673</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="45" outlineLevel="1">
       <c r="A45" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>/module_list.38/conv_38/Conv_output_0</t>
+          <t>/module_list.37/conv_37/Conv_output_0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3132,41 +3129,41 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
+        <v>256</v>
+      </c>
+      <c r="M45" t="n">
+        <v>52</v>
+      </c>
+      <c r="N45" t="n">
+        <v>52</v>
+      </c>
+      <c r="O45" t="n">
         <v>512</v>
       </c>
-      <c r="M45" t="n">
-        <v>26</v>
-      </c>
-      <c r="N45" t="n">
-        <v>26</v>
-      </c>
-      <c r="O45" t="n">
-        <v>256</v>
-      </c>
       <c r="P45" t="n">
         <v>26</v>
       </c>
@@ -3174,16 +3171,16 @@
         <v>26</v>
       </c>
       <c r="S45" t="n">
-        <v>440</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="46" outlineLevel="1">
       <c r="A46" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>/module_list.39/conv_39/Conv_output_0</t>
+          <t>/module_list.38/conv_38/Conv_output_0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3192,10 +3189,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -3204,29 +3201,29 @@
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>512</v>
+      </c>
+      <c r="M46" t="n">
+        <v>26</v>
+      </c>
+      <c r="N46" t="n">
+        <v>26</v>
+      </c>
+      <c r="O46" t="n">
         <v>256</v>
       </c>
-      <c r="M46" t="n">
-        <v>26</v>
-      </c>
-      <c r="N46" t="n">
-        <v>26</v>
-      </c>
-      <c r="O46" t="n">
-        <v>512</v>
-      </c>
       <c r="P46" t="n">
         <v>26</v>
       </c>
@@ -3234,49 +3231,49 @@
         <v>26</v>
       </c>
       <c r="S46" t="n">
-        <v>3548</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" outlineLevel="1">
       <c r="A47" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>/Add_11_output_0</t>
+          <t>/module_list.39/conv_39/Conv_output_0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M47" t="n">
         <v>26</v>
@@ -3294,21 +3291,21 @@
         <v>26</v>
       </c>
       <c r="S47" t="n">
-        <v>649</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="48" outlineLevel="1">
       <c r="A48" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>/module_list.41/conv_41/Conv_output_0</t>
+          <t>/Add_11_output_0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -3321,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3345,7 +3342,7 @@
         <v>26</v>
       </c>
       <c r="O48" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="P48" t="n">
         <v>26</v>
@@ -3354,16 +3351,16 @@
         <v>26</v>
       </c>
       <c r="S48" t="n">
-        <v>440</v>
+        <v>649</v>
       </c>
     </row>
     <row r="49" outlineLevel="1">
       <c r="A49" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>/module_list.42/conv_42/Conv_output_0</t>
+          <t>/module_list.41/conv_41/Conv_output_0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3372,10 +3369,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -3384,29 +3381,29 @@
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
+        <v>512</v>
+      </c>
+      <c r="M49" t="n">
+        <v>26</v>
+      </c>
+      <c r="N49" t="n">
+        <v>26</v>
+      </c>
+      <c r="O49" t="n">
         <v>256</v>
       </c>
-      <c r="M49" t="n">
-        <v>26</v>
-      </c>
-      <c r="N49" t="n">
-        <v>26</v>
-      </c>
-      <c r="O49" t="n">
-        <v>512</v>
-      </c>
       <c r="P49" t="n">
         <v>26</v>
       </c>
@@ -3414,49 +3411,49 @@
         <v>26</v>
       </c>
       <c r="S49" t="n">
-        <v>3548</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" outlineLevel="1">
       <c r="A50" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>/Add_12_output_0</t>
+          <t>/module_list.42/conv_42/Conv_output_0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M50" t="n">
         <v>26</v>
@@ -3474,21 +3471,21 @@
         <v>26</v>
       </c>
       <c r="S50" t="n">
-        <v>649</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="51" outlineLevel="1">
       <c r="A51" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>/module_list.44/conv_44/Conv_output_0</t>
+          <t>/Add_12_output_0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -3501,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3525,7 +3522,7 @@
         <v>26</v>
       </c>
       <c r="O51" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="P51" t="n">
         <v>26</v>
@@ -3534,16 +3531,16 @@
         <v>26</v>
       </c>
       <c r="S51" t="n">
-        <v>440</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52" outlineLevel="1">
       <c r="A52" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>/module_list.45/conv_45/Conv_output_0</t>
+          <t>/module_list.44/conv_44/Conv_output_0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3552,10 +3549,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
         <v>1</v>
@@ -3564,29 +3561,29 @@
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
+        <v>512</v>
+      </c>
+      <c r="M52" t="n">
+        <v>26</v>
+      </c>
+      <c r="N52" t="n">
+        <v>26</v>
+      </c>
+      <c r="O52" t="n">
         <v>256</v>
       </c>
-      <c r="M52" t="n">
-        <v>26</v>
-      </c>
-      <c r="N52" t="n">
-        <v>26</v>
-      </c>
-      <c r="O52" t="n">
-        <v>512</v>
-      </c>
       <c r="P52" t="n">
         <v>26</v>
       </c>
@@ -3594,49 +3591,49 @@
         <v>26</v>
       </c>
       <c r="S52" t="n">
-        <v>3548</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" outlineLevel="1">
       <c r="A53" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>/Add_13_output_0</t>
+          <t>/module_list.45/conv_45/Conv_output_0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M53" t="n">
         <v>26</v>
@@ -3654,21 +3651,21 @@
         <v>26</v>
       </c>
       <c r="S53" t="n">
-        <v>649</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="54" outlineLevel="1">
       <c r="A54" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>/module_list.47/conv_47/Conv_output_0</t>
+          <t>/Add_13_output_0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -3681,7 +3678,7 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3705,7 +3702,7 @@
         <v>26</v>
       </c>
       <c r="O54" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="P54" t="n">
         <v>26</v>
@@ -3714,16 +3711,16 @@
         <v>26</v>
       </c>
       <c r="S54" t="n">
-        <v>440</v>
+        <v>649</v>
       </c>
     </row>
     <row r="55" outlineLevel="1">
       <c r="A55" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>/module_list.48/conv_48/Conv_output_0</t>
+          <t>/module_list.47/conv_47/Conv_output_0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3732,10 +3729,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
@@ -3744,29 +3741,29 @@
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
+        <v>512</v>
+      </c>
+      <c r="M55" t="n">
+        <v>26</v>
+      </c>
+      <c r="N55" t="n">
+        <v>26</v>
+      </c>
+      <c r="O55" t="n">
         <v>256</v>
       </c>
-      <c r="M55" t="n">
-        <v>26</v>
-      </c>
-      <c r="N55" t="n">
-        <v>26</v>
-      </c>
-      <c r="O55" t="n">
-        <v>512</v>
-      </c>
       <c r="P55" t="n">
         <v>26</v>
       </c>
@@ -3774,49 +3771,49 @@
         <v>26</v>
       </c>
       <c r="S55" t="n">
-        <v>3548</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" outlineLevel="1">
       <c r="A56" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>/Add_14_output_0</t>
+          <t>/module_list.48/conv_48/Conv_output_0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M56" t="n">
         <v>26</v>
@@ -3834,21 +3831,21 @@
         <v>26</v>
       </c>
       <c r="S56" t="n">
-        <v>649</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="57" outlineLevel="1">
       <c r="A57" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>/module_list.50/conv_50/Conv_output_0</t>
+          <t>/Add_14_output_0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -3861,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3885,7 +3882,7 @@
         <v>26</v>
       </c>
       <c r="O57" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="P57" t="n">
         <v>26</v>
@@ -3894,16 +3891,16 @@
         <v>26</v>
       </c>
       <c r="S57" t="n">
-        <v>440</v>
+        <v>649</v>
       </c>
     </row>
     <row r="58" outlineLevel="1">
       <c r="A58" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>/module_list.51/conv_51/Conv_output_0</t>
+          <t>/module_list.50/conv_50/Conv_output_0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3912,10 +3909,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -3924,29 +3921,29 @@
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
+        <v>512</v>
+      </c>
+      <c r="M58" t="n">
+        <v>26</v>
+      </c>
+      <c r="N58" t="n">
+        <v>26</v>
+      </c>
+      <c r="O58" t="n">
         <v>256</v>
       </c>
-      <c r="M58" t="n">
-        <v>26</v>
-      </c>
-      <c r="N58" t="n">
-        <v>26</v>
-      </c>
-      <c r="O58" t="n">
-        <v>512</v>
-      </c>
       <c r="P58" t="n">
         <v>26</v>
       </c>
@@ -3954,49 +3951,49 @@
         <v>26</v>
       </c>
       <c r="S58" t="n">
-        <v>3548</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" outlineLevel="1">
       <c r="A59" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>/Add_15_output_0</t>
+          <t>/module_list.51/conv_51/Conv_output_0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M59" t="n">
         <v>26</v>
@@ -4014,21 +4011,21 @@
         <v>26</v>
       </c>
       <c r="S59" t="n">
-        <v>649</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="60" outlineLevel="1">
       <c r="A60" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>/module_list.53/conv_53/Conv_output_0</t>
+          <t>/Add_15_output_0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -4041,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4065,7 +4062,7 @@
         <v>26</v>
       </c>
       <c r="O60" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="P60" t="n">
         <v>26</v>
@@ -4074,16 +4071,16 @@
         <v>26</v>
       </c>
       <c r="S60" t="n">
-        <v>440</v>
+        <v>649</v>
       </c>
     </row>
     <row r="61" outlineLevel="1">
       <c r="A61" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>/module_list.54/conv_54/Conv_output_0</t>
+          <t>/module_list.53/conv_53/Conv_output_0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4092,10 +4089,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -4104,29 +4101,29 @@
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
+        <v>512</v>
+      </c>
+      <c r="M61" t="n">
+        <v>26</v>
+      </c>
+      <c r="N61" t="n">
+        <v>26</v>
+      </c>
+      <c r="O61" t="n">
         <v>256</v>
       </c>
-      <c r="M61" t="n">
-        <v>26</v>
-      </c>
-      <c r="N61" t="n">
-        <v>26</v>
-      </c>
-      <c r="O61" t="n">
-        <v>512</v>
-      </c>
       <c r="P61" t="n">
         <v>26</v>
       </c>
@@ -4134,49 +4131,49 @@
         <v>26</v>
       </c>
       <c r="S61" t="n">
-        <v>3548</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" outlineLevel="1">
       <c r="A62" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>/Add_16_output_0</t>
+          <t>/module_list.54/conv_54/Conv_output_0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M62" t="n">
         <v>26</v>
@@ -4194,21 +4191,21 @@
         <v>26</v>
       </c>
       <c r="S62" t="n">
-        <v>649</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="63" outlineLevel="1">
       <c r="A63" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>/module_list.56/conv_56/Conv_output_0</t>
+          <t>/Add_16_output_0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -4221,7 +4218,7 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4245,7 +4242,7 @@
         <v>26</v>
       </c>
       <c r="O63" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="P63" t="n">
         <v>26</v>
@@ -4254,16 +4251,16 @@
         <v>26</v>
       </c>
       <c r="S63" t="n">
-        <v>440</v>
+        <v>649</v>
       </c>
     </row>
     <row r="64" outlineLevel="1">
       <c r="A64" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>/module_list.57/conv_57/Conv_output_0</t>
+          <t>/module_list.56/conv_56/Conv_output_0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4272,10 +4269,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -4284,29 +4281,29 @@
         <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
+        <v>512</v>
+      </c>
+      <c r="M64" t="n">
+        <v>26</v>
+      </c>
+      <c r="N64" t="n">
+        <v>26</v>
+      </c>
+      <c r="O64" t="n">
         <v>256</v>
       </c>
-      <c r="M64" t="n">
-        <v>26</v>
-      </c>
-      <c r="N64" t="n">
-        <v>26</v>
-      </c>
-      <c r="O64" t="n">
-        <v>512</v>
-      </c>
       <c r="P64" t="n">
         <v>26</v>
       </c>
@@ -4314,49 +4311,49 @@
         <v>26</v>
       </c>
       <c r="S64" t="n">
-        <v>3548</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" outlineLevel="1">
       <c r="A65" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>/Add_17_output_0</t>
+          <t>/module_list.57/conv_57/Conv_output_0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M65" t="n">
         <v>26</v>
@@ -4374,21 +4371,21 @@
         <v>26</v>
       </c>
       <c r="S65" t="n">
-        <v>649</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="66" outlineLevel="1">
       <c r="A66" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>/module_list.59/conv_59/Conv_output_0</t>
+          <t>/Add_17_output_0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -4401,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4425,7 +4422,7 @@
         <v>26</v>
       </c>
       <c r="O66" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="P66" t="n">
         <v>26</v>
@@ -4434,16 +4431,16 @@
         <v>26</v>
       </c>
       <c r="S66" t="n">
-        <v>440</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67" outlineLevel="1">
       <c r="A67" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>/module_list.60/conv_60/Conv_output_0</t>
+          <t>/module_list.59/conv_59/Conv_output_0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4452,10 +4449,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -4464,29 +4461,29 @@
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
+        <v>512</v>
+      </c>
+      <c r="M67" t="n">
+        <v>26</v>
+      </c>
+      <c r="N67" t="n">
+        <v>26</v>
+      </c>
+      <c r="O67" t="n">
         <v>256</v>
       </c>
-      <c r="M67" t="n">
-        <v>26</v>
-      </c>
-      <c r="N67" t="n">
-        <v>26</v>
-      </c>
-      <c r="O67" t="n">
-        <v>512</v>
-      </c>
       <c r="P67" t="n">
         <v>26</v>
       </c>
@@ -4494,49 +4491,49 @@
         <v>26</v>
       </c>
       <c r="S67" t="n">
-        <v>3548</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" outlineLevel="1">
       <c r="A68" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>/Add_18_output_0</t>
+          <t>/module_list.60/conv_60/Conv_output_0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="M68" t="n">
         <v>26</v>
@@ -4554,46 +4551,46 @@
         <v>26</v>
       </c>
       <c r="S68" t="n">
-        <v>649</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="69" outlineLevel="1">
       <c r="A69" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>/module_list.62/conv_62/Conv_output_0</t>
+          <t>/Add_18_output_0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>512</v>
@@ -4605,25 +4602,25 @@
         <v>26</v>
       </c>
       <c r="O69" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="P69" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q69" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="S69" t="n">
-        <v>4084</v>
+        <v>649</v>
       </c>
     </row>
     <row r="70" outlineLevel="1">
       <c r="A70" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>/module_list.63/conv_63/Conv_output_0</t>
+          <t>/module_list.62/conv_62/Conv_output_0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4632,41 +4629,41 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
+        <v>512</v>
+      </c>
+      <c r="M70" t="n">
+        <v>26</v>
+      </c>
+      <c r="N70" t="n">
+        <v>26</v>
+      </c>
+      <c r="O70" t="n">
         <v>1024</v>
       </c>
-      <c r="M70" t="n">
-        <v>13</v>
-      </c>
-      <c r="N70" t="n">
-        <v>13</v>
-      </c>
-      <c r="O70" t="n">
-        <v>512</v>
-      </c>
       <c r="P70" t="n">
         <v>13</v>
       </c>
@@ -4674,16 +4671,16 @@
         <v>13</v>
       </c>
       <c r="S70" t="n">
-        <v>444</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="71" outlineLevel="1">
       <c r="A71" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>/module_list.64/conv_64/Conv_output_0</t>
+          <t>/module_list.63/conv_63/Conv_output_0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4692,10 +4689,10 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
         <v>1</v>
@@ -4704,29 +4701,29 @@
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M71" t="n">
+        <v>13</v>
+      </c>
+      <c r="N71" t="n">
+        <v>13</v>
+      </c>
+      <c r="O71" t="n">
         <v>512</v>
       </c>
-      <c r="M71" t="n">
-        <v>13</v>
-      </c>
-      <c r="N71" t="n">
-        <v>13</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1024</v>
-      </c>
       <c r="P71" t="n">
         <v>13</v>
       </c>
@@ -4734,49 +4731,49 @@
         <v>13</v>
       </c>
       <c r="S71" t="n">
-        <v>3582</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" outlineLevel="1">
       <c r="A72" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>/Add_19_output_0</t>
+          <t>/module_list.64/conv_64/Conv_output_0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="M72" t="n">
         <v>13</v>
@@ -4794,21 +4791,21 @@
         <v>13</v>
       </c>
       <c r="S72" t="n">
-        <v>325</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="73" outlineLevel="1">
       <c r="A73" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>/module_list.66/conv_66/Conv_output_0</t>
+          <t>/Add_19_output_0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -4821,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4845,7 +4842,7 @@
         <v>13</v>
       </c>
       <c r="O73" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="P73" t="n">
         <v>13</v>
@@ -4854,16 +4851,16 @@
         <v>13</v>
       </c>
       <c r="S73" t="n">
-        <v>444</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" outlineLevel="1">
       <c r="A74" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>/module_list.67/conv_67/Conv_output_0</t>
+          <t>/module_list.66/conv_66/Conv_output_0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4872,10 +4869,10 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -4884,29 +4881,29 @@
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M74" t="n">
+        <v>13</v>
+      </c>
+      <c r="N74" t="n">
+        <v>13</v>
+      </c>
+      <c r="O74" t="n">
         <v>512</v>
       </c>
-      <c r="M74" t="n">
-        <v>13</v>
-      </c>
-      <c r="N74" t="n">
-        <v>13</v>
-      </c>
-      <c r="O74" t="n">
-        <v>1024</v>
-      </c>
       <c r="P74" t="n">
         <v>13</v>
       </c>
@@ -4914,49 +4911,49 @@
         <v>13</v>
       </c>
       <c r="S74" t="n">
-        <v>3582</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" outlineLevel="1">
       <c r="A75" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>/Add_20_output_0</t>
+          <t>/module_list.67/conv_67/Conv_output_0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="M75" t="n">
         <v>13</v>
@@ -4974,21 +4971,21 @@
         <v>13</v>
       </c>
       <c r="S75" t="n">
-        <v>325</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="76" outlineLevel="1">
       <c r="A76" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>/module_list.69/conv_69/Conv_output_0</t>
+          <t>/Add_20_output_0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -5001,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5025,7 +5022,7 @@
         <v>13</v>
       </c>
       <c r="O76" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="P76" t="n">
         <v>13</v>
@@ -5034,16 +5031,16 @@
         <v>13</v>
       </c>
       <c r="S76" t="n">
-        <v>444</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" outlineLevel="1">
       <c r="A77" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>/module_list.70/conv_70/Conv_output_0</t>
+          <t>/module_list.69/conv_69/Conv_output_0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5052,10 +5049,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>1</v>
@@ -5064,29 +5061,29 @@
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M77" t="n">
+        <v>13</v>
+      </c>
+      <c r="N77" t="n">
+        <v>13</v>
+      </c>
+      <c r="O77" t="n">
         <v>512</v>
       </c>
-      <c r="M77" t="n">
-        <v>13</v>
-      </c>
-      <c r="N77" t="n">
-        <v>13</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1024</v>
-      </c>
       <c r="P77" t="n">
         <v>13</v>
       </c>
@@ -5094,49 +5091,49 @@
         <v>13</v>
       </c>
       <c r="S77" t="n">
-        <v>3582</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" outlineLevel="1">
       <c r="A78" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>/Add_21_output_0</t>
+          <t>/module_list.70/conv_70/Conv_output_0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="M78" t="n">
         <v>13</v>
@@ -5154,21 +5151,21 @@
         <v>13</v>
       </c>
       <c r="S78" t="n">
-        <v>325</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="79" outlineLevel="1">
       <c r="A79" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>/module_list.72/conv_72/Conv_output_0</t>
+          <t>/Add_21_output_0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -5181,7 +5178,7 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5205,7 +5202,7 @@
         <v>13</v>
       </c>
       <c r="O79" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="P79" t="n">
         <v>13</v>
@@ -5214,16 +5211,16 @@
         <v>13</v>
       </c>
       <c r="S79" t="n">
-        <v>444</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" outlineLevel="1">
       <c r="A80" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>/module_list.73/conv_73/Conv_output_0</t>
+          <t>/module_list.72/conv_72/Conv_output_0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5232,10 +5229,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>1</v>
@@ -5244,29 +5241,29 @@
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M80" t="n">
+        <v>13</v>
+      </c>
+      <c r="N80" t="n">
+        <v>13</v>
+      </c>
+      <c r="O80" t="n">
         <v>512</v>
       </c>
-      <c r="M80" t="n">
-        <v>13</v>
-      </c>
-      <c r="N80" t="n">
-        <v>13</v>
-      </c>
-      <c r="O80" t="n">
-        <v>1024</v>
-      </c>
       <c r="P80" t="n">
         <v>13</v>
       </c>
@@ -5274,49 +5271,49 @@
         <v>13</v>
       </c>
       <c r="S80" t="n">
-        <v>3582</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" outlineLevel="1">
       <c r="A81" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>/Add_22_output_0</t>
+          <t>/module_list.73/conv_73/Conv_output_0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Add</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>1024</v>
+        <v>512</v>
       </c>
       <c r="M81" t="n">
         <v>13</v>
@@ -5334,21 +5331,21 @@
         <v>13</v>
       </c>
       <c r="S81" t="n">
-        <v>325</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="82" outlineLevel="1">
       <c r="A82" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>/module_list.75/conv_75/Conv_output_0</t>
+          <t>/Add_22_output_0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Add</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -5361,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5385,7 +5382,7 @@
         <v>13</v>
       </c>
       <c r="O82" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="P82" t="n">
         <v>13</v>
@@ -5394,16 +5391,16 @@
         <v>13</v>
       </c>
       <c r="S82" t="n">
-        <v>444</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" outlineLevel="1">
       <c r="A83" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>/module_list.76/conv_76/Conv_output_0</t>
+          <t>/module_list.75/conv_75/Conv_output_0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5412,10 +5409,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -5424,29 +5421,29 @@
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M83" t="n">
+        <v>13</v>
+      </c>
+      <c r="N83" t="n">
+        <v>13</v>
+      </c>
+      <c r="O83" t="n">
         <v>512</v>
       </c>
-      <c r="M83" t="n">
-        <v>13</v>
-      </c>
-      <c r="N83" t="n">
-        <v>13</v>
-      </c>
-      <c r="O83" t="n">
-        <v>1024</v>
-      </c>
       <c r="P83" t="n">
         <v>13</v>
       </c>
@@ -5454,16 +5451,16 @@
         <v>13</v>
       </c>
       <c r="S83" t="n">
-        <v>3582</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" outlineLevel="1">
       <c r="A84" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>/module_list.77/conv_77/Conv_output_0</t>
+          <t>/module_list.76/conv_76/Conv_output_0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5472,10 +5469,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
         <v>1</v>
@@ -5484,29 +5481,29 @@
         <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
+        <v>512</v>
+      </c>
+      <c r="M84" t="n">
+        <v>13</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13</v>
+      </c>
+      <c r="O84" t="n">
         <v>1024</v>
       </c>
-      <c r="M84" t="n">
-        <v>13</v>
-      </c>
-      <c r="N84" t="n">
-        <v>13</v>
-      </c>
-      <c r="O84" t="n">
-        <v>512</v>
-      </c>
       <c r="P84" t="n">
         <v>13</v>
       </c>
@@ -5514,16 +5511,16 @@
         <v>13</v>
       </c>
       <c r="S84" t="n">
-        <v>444</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="85" outlineLevel="1">
       <c r="A85" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>/module_list.78/conv_78/Conv_output_0</t>
+          <t>/module_list.77/conv_77/Conv_output_0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5532,10 +5529,10 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>1</v>
@@ -5544,29 +5541,29 @@
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M85" t="n">
+        <v>13</v>
+      </c>
+      <c r="N85" t="n">
+        <v>13</v>
+      </c>
+      <c r="O85" t="n">
         <v>512</v>
       </c>
-      <c r="M85" t="n">
-        <v>13</v>
-      </c>
-      <c r="N85" t="n">
-        <v>13</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1024</v>
-      </c>
       <c r="P85" t="n">
         <v>13</v>
       </c>
@@ -5574,16 +5571,16 @@
         <v>13</v>
       </c>
       <c r="S85" t="n">
-        <v>3582</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" outlineLevel="1">
       <c r="A86" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>/module_list.79/conv_79/Conv_output_0</t>
+          <t>/module_list.78/conv_78/Conv_output_0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5592,10 +5589,10 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
         <v>1</v>
@@ -5604,29 +5601,29 @@
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
+        <v>512</v>
+      </c>
+      <c r="M86" t="n">
+        <v>13</v>
+      </c>
+      <c r="N86" t="n">
+        <v>13</v>
+      </c>
+      <c r="O86" t="n">
         <v>1024</v>
       </c>
-      <c r="M86" t="n">
-        <v>13</v>
-      </c>
-      <c r="N86" t="n">
-        <v>13</v>
-      </c>
-      <c r="O86" t="n">
-        <v>512</v>
-      </c>
       <c r="P86" t="n">
         <v>13</v>
       </c>
@@ -5634,16 +5631,16 @@
         <v>13</v>
       </c>
       <c r="S86" t="n">
-        <v>444</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="87" outlineLevel="1">
       <c r="A87" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>/module_list.80/conv_80/Conv_output_0</t>
+          <t>/module_list.79/conv_79/Conv_output_0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5652,10 +5649,10 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -5664,29 +5661,29 @@
         <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
+        <v>1024</v>
+      </c>
+      <c r="M87" t="n">
+        <v>13</v>
+      </c>
+      <c r="N87" t="n">
+        <v>13</v>
+      </c>
+      <c r="O87" t="n">
         <v>512</v>
       </c>
-      <c r="M87" t="n">
-        <v>13</v>
-      </c>
-      <c r="N87" t="n">
-        <v>13</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1024</v>
-      </c>
       <c r="P87" t="n">
         <v>13</v>
       </c>
@@ -5694,28 +5691,28 @@
         <v>13</v>
       </c>
       <c r="S87" t="n">
-        <v>3582</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" outlineLevel="1">
       <c r="A88" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>output1</t>
+          <t>/module_list.80/conv_80/Conv_output_0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -5724,29 +5721,29 @@
         <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
+        <v>512</v>
+      </c>
+      <c r="M88" t="n">
+        <v>13</v>
+      </c>
+      <c r="N88" t="n">
+        <v>13</v>
+      </c>
+      <c r="O88" t="n">
         <v>1024</v>
       </c>
-      <c r="M88" t="n">
-        <v>13</v>
-      </c>
-      <c r="N88" t="n">
-        <v>13</v>
-      </c>
-      <c r="O88" t="n">
-        <v>21</v>
-      </c>
       <c r="P88" t="n">
         <v>13</v>
       </c>
@@ -5754,21 +5751,21 @@
         <v>13</v>
       </c>
       <c r="S88" t="n">
-        <v>125</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="89" outlineLevel="1">
       <c r="A89" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>/module_list.84/conv_84/Conv_output_0</t>
+          <t>output1</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -5796,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="M89" t="n">
         <v>13</v>
@@ -5805,7 +5802,7 @@
         <v>13</v>
       </c>
       <c r="O89" t="n">
-        <v>256</v>
+        <v>21</v>
       </c>
       <c r="P89" t="n">
         <v>13</v>
@@ -5814,34 +5811,34 @@
         <v>13</v>
       </c>
       <c r="S89" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="90" outlineLevel="1">
       <c r="A90" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>/module_list.85/upsample_85/Resize_output_0</t>
+          <t>/module_list.84/conv_84/Conv_output_0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>resize_onnx</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5856,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="M90" t="n">
         <v>13</v>
@@ -5868,40 +5865,40 @@
         <v>256</v>
       </c>
       <c r="P90" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q90" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="S90" t="n">
-        <v>163</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" outlineLevel="1">
       <c r="A91" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>/module_list.87/conv_87/Conv_output_0</t>
+          <t>/module_list.85/upsample_85/Resize_output_0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>resize_onnx</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5916,13 +5913,13 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>768</v>
+        <v>256</v>
       </c>
       <c r="M91" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N91" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O91" t="n">
         <v>256</v>
@@ -5934,16 +5931,16 @@
         <v>26</v>
       </c>
       <c r="S91" t="n">
-        <v>662</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" outlineLevel="1">
       <c r="A92" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>/module_list.88/conv_88/Conv_output_0</t>
+          <t>/module_list.87/conv_87/Conv_output_0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5952,10 +5949,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -5964,29 +5961,29 @@
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
+        <v>768</v>
+      </c>
+      <c r="M92" t="n">
+        <v>26</v>
+      </c>
+      <c r="N92" t="n">
+        <v>26</v>
+      </c>
+      <c r="O92" t="n">
         <v>256</v>
       </c>
-      <c r="M92" t="n">
-        <v>26</v>
-      </c>
-      <c r="N92" t="n">
-        <v>26</v>
-      </c>
-      <c r="O92" t="n">
-        <v>512</v>
-      </c>
       <c r="P92" t="n">
         <v>26</v>
       </c>
@@ -5994,16 +5991,16 @@
         <v>26</v>
       </c>
       <c r="S92" t="n">
-        <v>3548</v>
+        <v>662</v>
       </c>
     </row>
     <row r="93" outlineLevel="1">
       <c r="A93" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>/module_list.89/conv_89/Conv_output_0</t>
+          <t>/module_list.88/conv_88/Conv_output_0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6012,10 +6009,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -6024,29 +6021,29 @@
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
+        <v>256</v>
+      </c>
+      <c r="M93" t="n">
+        <v>26</v>
+      </c>
+      <c r="N93" t="n">
+        <v>26</v>
+      </c>
+      <c r="O93" t="n">
         <v>512</v>
       </c>
-      <c r="M93" t="n">
-        <v>26</v>
-      </c>
-      <c r="N93" t="n">
-        <v>26</v>
-      </c>
-      <c r="O93" t="n">
-        <v>256</v>
-      </c>
       <c r="P93" t="n">
         <v>26</v>
       </c>
@@ -6054,16 +6051,16 @@
         <v>26</v>
       </c>
       <c r="S93" t="n">
-        <v>440</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="94" outlineLevel="1">
       <c r="A94" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>/module_list.90/conv_90/Conv_output_0</t>
+          <t>/module_list.89/conv_89/Conv_output_0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6072,10 +6069,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -6084,29 +6081,29 @@
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
+        <v>512</v>
+      </c>
+      <c r="M94" t="n">
+        <v>26</v>
+      </c>
+      <c r="N94" t="n">
+        <v>26</v>
+      </c>
+      <c r="O94" t="n">
         <v>256</v>
       </c>
-      <c r="M94" t="n">
-        <v>26</v>
-      </c>
-      <c r="N94" t="n">
-        <v>26</v>
-      </c>
-      <c r="O94" t="n">
-        <v>512</v>
-      </c>
       <c r="P94" t="n">
         <v>26</v>
       </c>
@@ -6114,16 +6111,16 @@
         <v>26</v>
       </c>
       <c r="S94" t="n">
-        <v>3548</v>
+        <v>440</v>
       </c>
     </row>
     <row r="95" outlineLevel="1">
       <c r="A95" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>/module_list.91/conv_91/Conv_output_0</t>
+          <t>/module_list.90/conv_90/Conv_output_0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6132,10 +6129,10 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
         <v>1</v>
@@ -6144,29 +6141,29 @@
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
+        <v>256</v>
+      </c>
+      <c r="M95" t="n">
+        <v>26</v>
+      </c>
+      <c r="N95" t="n">
+        <v>26</v>
+      </c>
+      <c r="O95" t="n">
         <v>512</v>
       </c>
-      <c r="M95" t="n">
-        <v>26</v>
-      </c>
-      <c r="N95" t="n">
-        <v>26</v>
-      </c>
-      <c r="O95" t="n">
-        <v>256</v>
-      </c>
       <c r="P95" t="n">
         <v>26</v>
       </c>
@@ -6174,16 +6171,16 @@
         <v>26</v>
       </c>
       <c r="S95" t="n">
-        <v>440</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="96" outlineLevel="1">
       <c r="A96" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>/module_list.92/conv_92/Conv_output_0</t>
+          <t>/module_list.91/conv_91/Conv_output_0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6192,10 +6189,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -6204,29 +6201,29 @@
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
+        <v>512</v>
+      </c>
+      <c r="M96" t="n">
+        <v>26</v>
+      </c>
+      <c r="N96" t="n">
+        <v>26</v>
+      </c>
+      <c r="O96" t="n">
         <v>256</v>
       </c>
-      <c r="M96" t="n">
-        <v>26</v>
-      </c>
-      <c r="N96" t="n">
-        <v>26</v>
-      </c>
-      <c r="O96" t="n">
-        <v>512</v>
-      </c>
       <c r="P96" t="n">
         <v>26</v>
       </c>
@@ -6234,28 +6231,28 @@
         <v>26</v>
       </c>
       <c r="S96" t="n">
-        <v>3548</v>
+        <v>440</v>
       </c>
     </row>
     <row r="97" outlineLevel="1">
       <c r="A97" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>output2</t>
+          <t>/module_list.92/conv_92/Conv_output_0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -6264,29 +6261,29 @@
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
+        <v>256</v>
+      </c>
+      <c r="M97" t="n">
+        <v>26</v>
+      </c>
+      <c r="N97" t="n">
+        <v>26</v>
+      </c>
+      <c r="O97" t="n">
         <v>512</v>
       </c>
-      <c r="M97" t="n">
-        <v>26</v>
-      </c>
-      <c r="N97" t="n">
-        <v>26</v>
-      </c>
-      <c r="O97" t="n">
-        <v>21</v>
-      </c>
       <c r="P97" t="n">
         <v>26</v>
       </c>
@@ -6294,21 +6291,21 @@
         <v>26</v>
       </c>
       <c r="S97" t="n">
-        <v>226</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="98" outlineLevel="1">
       <c r="A98" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>/module_list.96/conv_96/Conv_output_0</t>
+          <t>output2</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -6336,7 +6333,7 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="M98" t="n">
         <v>26</v>
@@ -6345,7 +6342,7 @@
         <v>26</v>
       </c>
       <c r="O98" t="n">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="P98" t="n">
         <v>26</v>
@@ -6354,34 +6351,34 @@
         <v>26</v>
       </c>
       <c r="S98" t="n">
-        <v>120</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" outlineLevel="1">
       <c r="A99" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>/module_list.97/upsample_97/Resize_output_0</t>
+          <t>/module_list.96/conv_96/Conv_output_0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>resize_onnx</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6396,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="M99" t="n">
         <v>26</v>
@@ -6408,40 +6405,40 @@
         <v>128</v>
       </c>
       <c r="P99" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="Q99" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="S99" t="n">
-        <v>326</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" outlineLevel="1">
       <c r="A100" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>/module_list.99/conv_99/Conv_output_0</t>
+          <t>/module_list.97/upsample_97/Resize_output_0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Conv&gt;LeakyRelu</t>
+          <t>resize_onnx</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6456,13 +6453,13 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>384</v>
+        <v>128</v>
       </c>
       <c r="M100" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N100" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="O100" t="n">
         <v>128</v>
@@ -6474,16 +6471,16 @@
         <v>52</v>
       </c>
       <c r="S100" t="n">
-        <v>661</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" outlineLevel="1">
       <c r="A101" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>/module_list.100/conv_100/Conv_output_0</t>
+          <t>/module_list.99/conv_99/Conv_output_0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6492,10 +6489,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>1</v>
@@ -6504,29 +6501,29 @@
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
+        <v>384</v>
+      </c>
+      <c r="M101" t="n">
+        <v>52</v>
+      </c>
+      <c r="N101" t="n">
+        <v>52</v>
+      </c>
+      <c r="O101" t="n">
         <v>128</v>
       </c>
-      <c r="M101" t="n">
-        <v>52</v>
-      </c>
-      <c r="N101" t="n">
-        <v>52</v>
-      </c>
-      <c r="O101" t="n">
-        <v>256</v>
-      </c>
       <c r="P101" t="n">
         <v>52</v>
       </c>
@@ -6534,16 +6531,16 @@
         <v>52</v>
       </c>
       <c r="S101" t="n">
-        <v>3581</v>
+        <v>661</v>
       </c>
     </row>
     <row r="102" outlineLevel="1">
       <c r="A102" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>/module_list.101/conv_101/Conv_output_0</t>
+          <t>/module_list.100/conv_100/Conv_output_0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6552,10 +6549,10 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
@@ -6564,29 +6561,29 @@
         <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102" t="n">
+        <v>128</v>
+      </c>
+      <c r="M102" t="n">
+        <v>52</v>
+      </c>
+      <c r="N102" t="n">
+        <v>52</v>
+      </c>
+      <c r="O102" t="n">
         <v>256</v>
       </c>
-      <c r="M102" t="n">
-        <v>52</v>
-      </c>
-      <c r="N102" t="n">
-        <v>52</v>
-      </c>
-      <c r="O102" t="n">
-        <v>128</v>
-      </c>
       <c r="P102" t="n">
         <v>52</v>
       </c>
@@ -6594,16 +6591,16 @@
         <v>52</v>
       </c>
       <c r="S102" t="n">
-        <v>443</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="103" outlineLevel="1">
       <c r="A103" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>/module_list.102/conv_102/Conv_output_0</t>
+          <t>/module_list.101/conv_101/Conv_output_0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6612,10 +6609,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -6624,29 +6621,29 @@
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
+        <v>256</v>
+      </c>
+      <c r="M103" t="n">
+        <v>52</v>
+      </c>
+      <c r="N103" t="n">
+        <v>52</v>
+      </c>
+      <c r="O103" t="n">
         <v>128</v>
       </c>
-      <c r="M103" t="n">
-        <v>52</v>
-      </c>
-      <c r="N103" t="n">
-        <v>52</v>
-      </c>
-      <c r="O103" t="n">
-        <v>256</v>
-      </c>
       <c r="P103" t="n">
         <v>52</v>
       </c>
@@ -6654,16 +6651,16 @@
         <v>52</v>
       </c>
       <c r="S103" t="n">
-        <v>3581</v>
+        <v>443</v>
       </c>
     </row>
     <row r="104" outlineLevel="1">
       <c r="A104" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>/module_list.103/conv_103/Conv_output_0</t>
+          <t>/module_list.102/conv_102/Conv_output_0</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6672,10 +6669,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F104" t="n">
         <v>1</v>
@@ -6684,29 +6681,29 @@
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" t="n">
+        <v>128</v>
+      </c>
+      <c r="M104" t="n">
+        <v>52</v>
+      </c>
+      <c r="N104" t="n">
+        <v>52</v>
+      </c>
+      <c r="O104" t="n">
         <v>256</v>
       </c>
-      <c r="M104" t="n">
-        <v>52</v>
-      </c>
-      <c r="N104" t="n">
-        <v>52</v>
-      </c>
-      <c r="O104" t="n">
-        <v>128</v>
-      </c>
       <c r="P104" t="n">
         <v>52</v>
       </c>
@@ -6714,16 +6711,16 @@
         <v>52</v>
       </c>
       <c r="S104" t="n">
-        <v>443</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="105" outlineLevel="1">
       <c r="A105" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>/module_list.104/conv_104/Conv_output_0</t>
+          <t>/module_list.103/conv_103/Conv_output_0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6732,10 +6729,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
         <v>1</v>
@@ -6744,29 +6741,29 @@
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
+        <v>256</v>
+      </c>
+      <c r="M105" t="n">
+        <v>52</v>
+      </c>
+      <c r="N105" t="n">
+        <v>52</v>
+      </c>
+      <c r="O105" t="n">
         <v>128</v>
       </c>
-      <c r="M105" t="n">
-        <v>52</v>
-      </c>
-      <c r="N105" t="n">
-        <v>52</v>
-      </c>
-      <c r="O105" t="n">
-        <v>256</v>
-      </c>
       <c r="P105" t="n">
         <v>52</v>
       </c>
@@ -6774,28 +6771,28 @@
         <v>52</v>
       </c>
       <c r="S105" t="n">
-        <v>3581</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" outlineLevel="1">
       <c r="A106" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>output3</t>
+          <t>/module_list.104/conv_104/Conv_output_0</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Conv</t>
+          <t>Conv&gt;LeakyRelu</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>
@@ -6804,29 +6801,29 @@
         <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106" t="n">
+        <v>128</v>
+      </c>
+      <c r="M106" t="n">
+        <v>52</v>
+      </c>
+      <c r="N106" t="n">
+        <v>52</v>
+      </c>
+      <c r="O106" t="n">
         <v>256</v>
       </c>
-      <c r="M106" t="n">
-        <v>52</v>
-      </c>
-      <c r="N106" t="n">
-        <v>52</v>
-      </c>
-      <c r="O106" t="n">
-        <v>21</v>
-      </c>
       <c r="P106" t="n">
         <v>52</v>
       </c>
@@ -6834,31 +6831,34 @@
         <v>52</v>
       </c>
       <c r="S106" t="n">
-        <v>469</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="107" outlineLevel="1">
       <c r="A107" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>post_0_0_transpose</t>
+          <t>output3</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>transpose</t>
+          <t>Conv</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6873,25 +6873,25 @@
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="M107" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="N107" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="O107" t="n">
         <v>21</v>
       </c>
       <c r="P107" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="Q107" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="S107" t="n">
-        <v>4</v>
+        <v>469</v>
       </c>
     </row>
     <row r="108" outlineLevel="1">
@@ -6900,12 +6900,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>post_0_1_cast_fp16_fp32</t>
+          <t>post_0_0_transpose</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>cast_fp16_fp32</t>
+          <t>transpose</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -6948,7 +6948,7 @@
         <v>13</v>
       </c>
       <c r="S108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" outlineLevel="1">
@@ -6957,12 +6957,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>post_1_0_transpose</t>
+          <t>post_0_1_cast_fp16_fp32</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>transpose</t>
+          <t>cast_fp16_fp32</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -6990,22 +6990,22 @@
         <v>21</v>
       </c>
       <c r="M109" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N109" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O109" t="n">
         <v>21</v>
       </c>
       <c r="P109" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q109" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="S109" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" outlineLevel="1">
@@ -7014,12 +7014,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>post_1_1_cast_fp16_fp32</t>
+          <t>post_1_0_transpose</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>cast_fp16_fp32</t>
+          <t>transpose</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -7062,7 +7062,7 @@
         <v>26</v>
       </c>
       <c r="S110" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" outlineLevel="1">
@@ -7071,12 +7071,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>post_2_0_transpose</t>
+          <t>post_1_1_cast_fp16_fp32</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>transpose</t>
+          <t>cast_fp16_fp32</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -7104,22 +7104,22 @@
         <v>21</v>
       </c>
       <c r="M111" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="N111" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="O111" t="n">
         <v>21</v>
       </c>
       <c r="P111" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="Q111" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="S111" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" outlineLevel="1">
@@ -7128,12 +7128,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>post_2_1_cast_fp16_fp32</t>
+          <t>post_2_0_transpose</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>cast_fp16_fp32</t>
+          <t>transpose</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -7176,7 +7176,7 @@
         <v>52</v>
       </c>
       <c r="S112" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" outlineLevel="1">
@@ -7185,44 +7185,101 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>post_2_1_cast_fp16_fp32</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>cast_fp16_fp32</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>21</v>
+      </c>
+      <c r="M113" t="n">
+        <v>52</v>
+      </c>
+      <c r="N113" t="n">
+        <v>52</v>
+      </c>
+      <c r="O113" t="n">
+        <v>21</v>
+      </c>
+      <c r="P113" t="n">
+        <v>52</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>52</v>
+      </c>
+      <c r="S113" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" outlineLevel="1">
+      <c r="A114" t="n">
+        <v>109</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="S113" t="n">
-        <v>188888</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="S114" s="5" t="inlineStr">
-        <is>
-          <t>Calculated with DRP-AI running 400MHz</t>
-        </is>
+      <c r="S114" t="n">
+        <v>189131</v>
       </c>
     </row>
     <row r="115">
       <c r="S115" s="5" t="inlineStr">
         <is>
-          <t>Not considering bus congestion outside of DRP-AI Accelerator.</t>
+          <t>Calculated with DRP-AI running 400MHz</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="S116" s="5" t="inlineStr">
         <is>
-          <t>Not considering memory bandwidth outside of DRP-AI Accelerator.</t>
+          <t>Not considering bus congestion outside of DRP-AI Accelerator.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="S117" s="5" t="inlineStr">
         <is>
+          <t>Not considering memory bandwidth outside of DRP-AI Accelerator.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="S118" s="5" t="inlineStr">
+        <is>
           <t>The value may be changed without prior notice.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:S112"/>
-  <conditionalFormatting sqref="S5:S112">
+  <autoFilter ref="A4:S113"/>
+  <conditionalFormatting sqref="S5:S113">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
